--- a/Semestre2/Exploitation Base de Donnée/TP/Export/TP2_Q11.xlsx
+++ b/Semestre2/Exploitation Base de Donnée/TP/Export/TP2_Q11.xlsx
@@ -61,11 +61,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -81,6 +82,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,18 +594,18 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="67677103"/>
-        <c:axId val="68245275"/>
+        <c:axId val="80944538"/>
+        <c:axId val="39183369"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67677103"/>
+        <c:axId val="80944538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -621,7 +627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68245275"/>
+        <c:crossAx val="39183369"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68245275"/>
+        <c:axId val="39183369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +650,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -666,7 +672,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67677103"/>
+        <c:crossAx val="80944538"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1085,18 +1091,18 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="30791612"/>
-        <c:axId val="49140898"/>
+        <c:axId val="93687285"/>
+        <c:axId val="94793588"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="30791612"/>
+        <c:axId val="93687285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1118,7 +1124,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49140898"/>
+        <c:crossAx val="94793588"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1126,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49140898"/>
+        <c:axId val="94793588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1147,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1163,7 +1169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30791612"/>
+        <c:crossAx val="93687285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,13 +1219,13 @@
     <c:view3D>
       <c:rotX val="300"/>
       <c:rotY val="0"/>
-      <c:rAngAx val="1"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="10"/>
     </c:view3D>
     <c:floor>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="d9d9d9"/>
         </a:solidFill>
         <a:ln w="0">
           <a:noFill/>
@@ -1230,9 +1236,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:sideWall>
@@ -1240,9 +1244,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:backWall>
@@ -1972,9 +1974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
+      <xdr:colOff>442080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1983,7 +1985,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="479520" y="3124800"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2002,18 +2004,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6567840" y="3174480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6568560" y="3174480"/>
+        <a:ext cx="5765040" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2032,18 +2034,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3299400" y="6646680"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5762520" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2056,16 +2058,49 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart"><cdr:relSizeAnchor><cdr:from><cdr:x>0</cdr:x><cdr:y>0</cdr:y></cdr:from><cdr:to><cdr:x>0.2110625</cdr:x><cdr:y>0.0503333333333333</cdr:y></cdr:to><cdr:pic><cdr:nvPicPr><cdr:cNvPr id="1" name="" descr=""></cdr:cNvPr><cdr:cNvPicPr/></cdr:nvPicPr><cdr:blipFill><a:blip r:embed="rId1"></a:blip><a:stretch/></cdr:blipFill><cdr:spPr><a:xfrm><a:off x="0" y="0"/><a:ext cx="1215720" cy="163080"/></a:xfrm><a:prstGeom prst="rect"><a:avLst/></a:prstGeom><a:ln w="0"><a:noFill/></a:ln></cdr:spPr></cdr:pic></cdr:relSizeAnchor></c:userShapes>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor>
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21101318832427</cdr:x>
+      <cdr:y>0.0502278030892321</cdr:y>
+    </cdr:to>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart"><cdr:relSizeAnchor><cdr:from><cdr:x>0</cdr:x><cdr:y>0</cdr:y></cdr:from><cdr:to><cdr:x>0.2110625</cdr:x><cdr:y>0.0503333333333333</cdr:y></cdr:to><cdr:pic><cdr:nvPicPr><cdr:cNvPr id="3" name="" descr=""></cdr:cNvPr><cdr:cNvPicPr/></cdr:nvPicPr><cdr:blipFill><a:blip r:embed="rId1"></a:blip><a:stretch/></cdr:blipFill><cdr:spPr><a:xfrm><a:off x="0" y="0"/><a:ext cx="1215720" cy="163080"/></a:xfrm><a:prstGeom prst="rect"><a:avLst/></a:prstGeom><a:ln w="0"><a:noFill/></a:ln></cdr:spPr></cdr:pic></cdr:relSizeAnchor></c:userShapes>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor>
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.210989697158913</cdr:x>
+      <cdr:y>0.0502278030892321</cdr:y>
+    </cdr:to>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart"><cdr:relSizeAnchor><cdr:from><cdr:x>0</cdr:x><cdr:y>0</cdr:y></cdr:from><cdr:to><cdr:x>0.2110625</cdr:x><cdr:y>0.0503333333333333</cdr:y></cdr:to><cdr:pic><cdr:nvPicPr><cdr:cNvPr id="5" name="" descr=""></cdr:cNvPr><cdr:cNvPicPr/></cdr:nvPicPr><cdr:blipFill><a:blip r:embed="rId1"></a:blip><a:stretch/></cdr:blipFill><cdr:spPr><a:xfrm><a:off x="0" y="0"/><a:ext cx="1215720" cy="163080"/></a:xfrm><a:prstGeom prst="rect"><a:avLst/></a:prstGeom><a:ln w="0"><a:noFill/></a:ln></cdr:spPr></cdr:pic></cdr:relSizeAnchor></c:userShapes>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor>
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.210957021489255</cdr:x>
+      <cdr:y>0.0502278030892321</cdr:y>
+    </cdr:to>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,15 +2110,15 @@
   </sheetPr>
   <dimension ref="A10:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M50" activeCellId="0" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
   </cols>
   <sheetData>
@@ -2162,7 +2197,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
